--- a/data/trans_camb/P2404-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2404-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P2404-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2404-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-4,03</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-9,21; -0,76</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 2,95</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; -0,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 1,41</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-86,52%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-41,41%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,27%</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 221,9</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 0,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 2,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 0,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 0,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 0,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 1,23</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-77,0; 54,3</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-54,29; 164,97</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,14; 56,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,18; 164,19</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 1,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 1,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 0,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,47</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,94%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-50,64; 121,38</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-56,06; 80,65</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 271,63</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,37; 72,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,11; 56,24</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 4,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 2,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 0,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 2,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,02</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>284,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,78%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,72; 851,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,97; 418,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,19; 298,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,95; 126,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,46; 368,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,09; 151,39</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 0,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 2,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; -0,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 0,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; -0,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,04</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,29; 34,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,29; 89,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,26; -19,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,61; 70,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,77; -6,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,61; 53,83</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; -0,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,41</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,74%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,25%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,99; 47,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,45; 53,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,48; -9,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,26; 23,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,24; 17,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,92; 30,12</t>
         </is>
       </c>
     </row>
